--- a/Reports/Week08_report.xlsx
+++ b/Reports/Week08_report.xlsx
@@ -202,7 +202,7 @@
     <t>Week: Week08</t>
   </si>
   <si>
-    <t>Generated: 2023-10-23 12:57:26 PM</t>
+    <t>Generated: 2023-10-25 11:22:40 AM</t>
   </si>
 </sst>
 </file>
